--- a/pandas/random_data.xlsx
+++ b/pandas/random_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,49 +436,96 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>names</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kashish</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5yh</t>
-        </is>
+          <t>Amit</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>thakur</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6yh</t>
-        </is>
+          <t>Riya</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jagirdar</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>yth</t>
-        </is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Neha</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arjun</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
